--- a/hello.xlsx
+++ b/hello.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git_test\hello-git-tortoiseGit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94133800-24AF-40C7-888F-062E1A6CCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egoing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leezche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +384,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hello.xlsx
+++ b/hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git_test\hello-git-tortoiseGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94133800-24AF-40C7-888F-062E1A6CCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F92D38-F446-49A1-9C26-FF4CDC89BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>canada</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,18 @@
   </si>
   <si>
     <t>jeju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kay yoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youbin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choung-ju</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -420,10 +428,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -431,10 +439,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git_test\hello-git-tortoiseGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F92D38-F446-49A1-9C26-FF4CDC89BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94133800-24AF-40C7-888F-062E1A6CCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>kay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>canada</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,18 +60,6 @@
   </si>
   <si>
     <t>jeju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kay yoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youbin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choung-ju</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -428,10 +420,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -439,21 +431,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git_test\hello-git-tortoiseGit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94133800-24AF-40C7-888F-062E1A6CCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,62 +18,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leezche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jeju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,62 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>